--- a/inbound/Metabase.xlsx
+++ b/inbound/Metabase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlcn.WorksheetConnection_ResultadoconsultaAAL2" hidden="1">'[2]Resultado consulta'!$A:$AL</definedName>
     <definedName name="_xlcn.WorksheetConnection_ResultadoconsultaAAL31" hidden="1">'[1]Resultado consulta'!$A:$AL</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
     <pivotCache cacheId="1" r:id="rId8"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="88">
   <si>
     <t>fi_order_line__dtype</t>
   </si>
@@ -448,12 +448,15 @@
   <si>
     <t>mar.aguila@originaltelecom.es</t>
   </si>
+  <si>
+    <t>manuelventura@originaltelecom.es</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +466,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -485,10 +496,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,8 +520,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="198">
@@ -7516,7 +7530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7527,7 +7541,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7540,7 +7554,7 @@
     <col min="33" max="33" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -7548,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -7556,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -7564,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -7572,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -7580,7 +7594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -7612,7 +7626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -7644,7 +7658,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -7672,7 +7686,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -7700,7 +7714,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -7728,7 +7742,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -7756,7 +7770,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -7784,7 +7798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -7812,7 +7826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -7840,7 +7854,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -7868,7 +7882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -7892,7 +7906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -7920,7 +7934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -7948,7 +7962,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -7976,7 +7990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -8002,7 +8016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -8032,7 +8046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -8060,7 +8074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
@@ -8088,7 +8102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -8116,7 +8130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -8144,7 +8158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -8172,7 +8186,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -8200,7 +8214,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -8228,7 +8242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10">
       <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
@@ -8258,7 +8272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
@@ -8312,7 +8326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
@@ -8340,7 +8354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -8368,7 +8382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10">
       <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
@@ -8396,7 +8410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -8416,7 +8430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -8438,7 +8452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -8460,7 +8474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10">
       <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
@@ -8488,7 +8502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -8508,7 +8522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row r="42" spans="1:10">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -8528,7 +8542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -8550,7 +8564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15">
+    <row r="44" spans="1:10">
       <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
@@ -8570,7 +8584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15">
+    <row r="45" spans="1:10">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -8594,7 +8608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15">
+    <row r="46" spans="1:10">
       <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
@@ -8614,7 +8628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15">
+    <row r="47" spans="1:10">
       <c r="A47" s="7" t="s">
         <v>44</v>
       </c>
@@ -8634,7 +8648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15">
+    <row r="48" spans="1:10">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -8654,7 +8668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15">
+    <row r="49" spans="1:10">
       <c r="A49" s="3" t="s">
         <v>78</v>
       </c>
@@ -9218,7 +9232,7 @@
   <dimension ref="A2:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -9231,7 +9245,7 @@
     <col min="33" max="33" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -9239,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -9247,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -9255,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -9263,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -9271,7 +9285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -9303,7 +9317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -9335,7 +9349,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -9361,7 +9375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -9387,7 +9401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -9413,7 +9427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -9439,7 +9453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -9463,7 +9477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -9491,7 +9505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -9519,7 +9533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -9545,7 +9559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -9571,7 +9585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -9591,7 +9605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -9617,7 +9631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -9641,7 +9655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
@@ -9667,7 +9681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -9689,7 +9703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -9715,7 +9729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -9737,7 +9751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
@@ -9759,7 +9773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
@@ -9781,7 +9795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
@@ -9801,7 +9815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -9825,7 +9839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -9847,7 +9861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -9873,7 +9887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10">
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
@@ -9923,7 +9937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -9945,7 +9959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
@@ -9969,7 +9983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10">
       <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
@@ -9997,7 +10011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -10021,7 +10035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10">
       <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
@@ -10039,7 +10053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10">
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
@@ -10057,7 +10071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10">
       <c r="A40" s="7" t="s">
         <v>19</v>
       </c>
@@ -10081,7 +10095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -10105,7 +10119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row r="42" spans="1:10">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -10123,7 +10137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -10143,7 +10157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15">
+    <row r="44" spans="1:10">
       <c r="A44" s="7" t="s">
         <v>14</v>
       </c>
@@ -10163,7 +10177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15">
+    <row r="45" spans="1:10">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -10181,7 +10195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15">
+    <row r="46" spans="1:10">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -10203,7 +10217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15">
+    <row r="47" spans="1:10">
       <c r="A47" s="7" t="s">
         <v>17</v>
       </c>
@@ -10227,7 +10241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15">
+    <row r="48" spans="1:10">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -10247,7 +10261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15">
+    <row r="49" spans="1:10">
       <c r="A49" s="3" t="s">
         <v>78</v>
       </c>
@@ -10637,7 +10651,7 @@
   <dimension ref="A2:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10650,7 +10664,7 @@
     <col min="33" max="33" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10658,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -10666,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -10674,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -10682,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -10690,7 +10704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -10722,7 +10736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -10754,7 +10768,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -10778,7 +10792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -10798,7 +10812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -10822,7 +10836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -10845,7 +10859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -10865,7 +10879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -10879,7 +10893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10896,7 +10910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -10916,7 +10930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -10930,7 +10944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>80</v>
       </c>
@@ -10941,7 +10955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -10961,7 +10975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -10972,7 +10986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -10990,7 +11004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -11004,7 +11018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -11018,7 +11032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -11035,7 +11049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -11049,7 +11063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -11067,7 +11081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
         <v>78</v>
       </c>
@@ -11081,7 +11095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -11099,7 +11113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -11119,7 +11133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -11133,7 +11147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -11167,7 +11181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -11178,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -11189,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
         <v>23</v>
       </c>
@@ -11200,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
@@ -11211,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -11222,7 +11236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -11233,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -11251,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10">
       <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
@@ -11262,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row r="42" spans="1:10">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -11273,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -11284,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15">
+    <row r="44" spans="1:10">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -11295,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15">
+    <row r="45" spans="1:10">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -11306,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15">
+    <row r="46" spans="1:10">
       <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
@@ -11317,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15">
+    <row r="47" spans="1:10">
       <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
@@ -11328,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -11370,10 +11384,13 @@
   <dimension ref="A2:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -11446,18 +11463,18 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>48</v>
+      <c r="A16" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>42</v>
+      <c r="A17" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -11591,6 +11608,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId2"/>
+    <hyperlink ref="A17" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>